--- a/h5n1-hpai/STable-X_raccoon.xlsx
+++ b/h5n1-hpai/STable-X_raccoon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tavis.anderson/Desktop/local-repos/datasets/h5n1-hpai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542847F2-9921-8449-B887-D327C3AC1673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DE579B-423F-5C4F-94E1-20CEDDE9F550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39700" yWindow="520" windowWidth="46060" windowHeight="26580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all-varscans-racoon" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="237">
   <si>
     <t>Pig</t>
   </si>
@@ -92,9 +92,6 @@
     <t>SYN</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2023</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
@@ -104,75 +101,45 @@
     <t>V386A</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2024</t>
-  </si>
-  <si>
     <t>D701N</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2025</t>
-  </si>
-  <si>
     <t>PB1</t>
   </si>
   <si>
     <t>N375</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2026</t>
-  </si>
-  <si>
     <t>PA</t>
   </si>
   <si>
     <t>G66</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2027</t>
-  </si>
-  <si>
     <t>V557</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2028</t>
-  </si>
-  <si>
     <t>S601P</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2029</t>
-  </si>
-  <si>
     <t>T639</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2030</t>
-  </si>
-  <si>
     <t>NP</t>
   </si>
   <si>
     <t>Y148</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2031</t>
-  </si>
-  <si>
     <t>R452K</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2032</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
     <t>E113K</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2033</t>
-  </si>
-  <si>
     <t>Nasal swab 1dpi</t>
   </si>
   <si>
@@ -182,1105 +149,532 @@
     <t>P152L</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2034</t>
-  </si>
-  <si>
     <t>N236</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2035</t>
-  </si>
-  <si>
     <t>T394I</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2036</t>
-  </si>
-  <si>
     <t>R100</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2037</t>
-  </si>
-  <si>
     <t>Y281H</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2038</t>
-  </si>
-  <si>
     <t>in stock at 35%</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2039</t>
-  </si>
-  <si>
     <t>NA</t>
   </si>
   <si>
     <t>I19T</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2040</t>
-  </si>
-  <si>
     <t>Y44H</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2041</t>
-  </si>
-  <si>
     <t>N91Y</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2042</t>
-  </si>
-  <si>
     <t>M93</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2043</t>
-  </si>
-  <si>
     <t>K104</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2044</t>
-  </si>
-  <si>
     <t>G129</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2045</t>
-  </si>
-  <si>
     <t>A149V</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2046</t>
-  </si>
-  <si>
     <t>A227T</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2047</t>
-  </si>
-  <si>
     <t>NS</t>
   </si>
   <si>
     <t>F103S</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2048</t>
-  </si>
-  <si>
     <t>L163</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2049</t>
-  </si>
-  <si>
     <t>Nasal swab 3dpi</t>
   </si>
   <si>
     <t>in stock at 36%, SYN</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2050</t>
-  </si>
-  <si>
     <t>E305</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2051</t>
-  </si>
-  <si>
     <t>in stock at 41%</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2052</t>
-  </si>
-  <si>
     <t>in stock at 32%</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2053</t>
-  </si>
-  <si>
     <t>I201T</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2054</t>
-  </si>
-  <si>
     <t>S558P</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2055</t>
-  </si>
-  <si>
-    <t>A/raccoon/Washington/22-018406-002/2056</t>
-  </si>
-  <si>
     <t>E430K</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2057</t>
-  </si>
-  <si>
     <t>E115G</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2058</t>
-  </si>
-  <si>
     <t>I14</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2059</t>
-  </si>
-  <si>
     <t>P16L</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2060</t>
-  </si>
-  <si>
-    <t>A/raccoon/Washington/22-018406-002/2061</t>
-  </si>
-  <si>
     <t>D120</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2062</t>
-  </si>
-  <si>
     <t>I128T</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2063</t>
-  </si>
-  <si>
     <t>T191A</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2064</t>
-  </si>
-  <si>
     <t>Nasal swab 5dpi</t>
   </si>
   <si>
     <t>P701S</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2065</t>
-  </si>
-  <si>
     <t>P238S</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2066</t>
-  </si>
-  <si>
-    <t>A/raccoon/Washington/22-018406-002/2067</t>
-  </si>
-  <si>
     <t>V436A</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2068</t>
-  </si>
-  <si>
     <t>E81A</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2069</t>
-  </si>
-  <si>
-    <t>A/raccoon/Washington/22-018406-002/2070</t>
-  </si>
-  <si>
     <t>E454</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2071</t>
-  </si>
-  <si>
     <t>S125</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2072</t>
-  </si>
-  <si>
     <t>S266L</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2073</t>
-  </si>
-  <si>
     <t>G228S</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2074</t>
-  </si>
-  <si>
     <t>S255</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2075</t>
-  </si>
-  <si>
     <t>L281S</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2076</t>
-  </si>
-  <si>
     <t>R287Q</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2077</t>
-  </si>
-  <si>
     <t>A270V</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2078</t>
-  </si>
-  <si>
-    <t>A/raccoon/Washington/22-018406-002/2079</t>
-  </si>
-  <si>
     <t>Q426*</t>
   </si>
   <si>
     <t>introduces a stop codon</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2080</t>
-  </si>
-  <si>
     <t>S582P</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2081</t>
-  </si>
-  <si>
     <t>T683K</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2082</t>
-  </si>
-  <si>
-    <t>A/raccoon/Washington/22-018406-002/2083</t>
-  </si>
-  <si>
     <t>K229</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2084</t>
-  </si>
-  <si>
     <t>H311Y</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2085</t>
-  </si>
-  <si>
     <t>E509K</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2086</t>
-  </si>
-  <si>
     <t>R74G</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2087</t>
-  </si>
-  <si>
     <t>G169</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2088</t>
-  </si>
-  <si>
     <t>N321</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2089</t>
-  </si>
-  <si>
     <t>G393</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2090</t>
-  </si>
-  <si>
     <t>D491G</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2091</t>
-  </si>
-  <si>
     <t>A183T</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2092</t>
-  </si>
-  <si>
     <t>T150A</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2093</t>
-  </si>
-  <si>
     <t>E190G</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2094</t>
-  </si>
-  <si>
     <t>D34</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2095</t>
-  </si>
-  <si>
     <t>R211G</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2096</t>
-  </si>
-  <si>
     <t>L274P</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2097</t>
-  </si>
-  <si>
     <t>Nasal swab 7dpi</t>
   </si>
   <si>
     <t>Q383*</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2098</t>
-  </si>
-  <si>
     <t>D611N</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2099</t>
-  </si>
-  <si>
     <t>E232G</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2100</t>
-  </si>
-  <si>
     <t>R249</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2101</t>
-  </si>
-  <si>
     <t>L419*</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2102</t>
-  </si>
-  <si>
     <t>L71</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2103</t>
-  </si>
-  <si>
     <t>K282E</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2104</t>
-  </si>
-  <si>
     <t>N398</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2105</t>
-  </si>
-  <si>
     <t>G177</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2106</t>
-  </si>
-  <si>
     <t>F133S</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2107</t>
-  </si>
-  <si>
     <t>Y155H</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2108</t>
-  </si>
-  <si>
     <t>G356</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2109</t>
-  </si>
-  <si>
     <t>P431S</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2110</t>
-  </si>
-  <si>
     <t>L20P</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2111</t>
-  </si>
-  <si>
     <t>N85</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2112</t>
-  </si>
-  <si>
     <t>R95</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2113</t>
-  </si>
-  <si>
     <t>V147</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2114</t>
-  </si>
-  <si>
     <t>G47C</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2115</t>
-  </si>
-  <si>
     <t>S489P</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2116</t>
-  </si>
-  <si>
     <t>T386</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2117</t>
-  </si>
-  <si>
     <t>R19</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2118</t>
-  </si>
-  <si>
     <t>BALF 3dpi</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2119</t>
-  </si>
-  <si>
-    <t>A/raccoon/Washington/22-018406-002/2120</t>
-  </si>
-  <si>
-    <t>A/raccoon/Washington/22-018406-002/2121</t>
-  </si>
-  <si>
     <t>in stock at 3%, SYN</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2122</t>
-  </si>
-  <si>
     <t>in stock at 1%, SYN</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2123</t>
-  </si>
-  <si>
     <t>in stock at 5%, SYN</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2124</t>
-  </si>
-  <si>
     <t>in stock at 9%</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2125</t>
-  </si>
-  <si>
-    <t>A/raccoon/Washington/22-018406-002/2126</t>
-  </si>
-  <si>
     <t>E267K</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2127</t>
-  </si>
-  <si>
     <t>in stock at 2%, SYN</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2128</t>
-  </si>
-  <si>
-    <t>A/raccoon/Washington/22-018406-002/2129</t>
-  </si>
-  <si>
     <t>M51T</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2130</t>
-  </si>
-  <si>
     <t>F130L</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2131</t>
-  </si>
-  <si>
     <t>Q257</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2132</t>
-  </si>
-  <si>
     <t>S279P</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2133</t>
-  </si>
-  <si>
     <t>I297T</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2134</t>
-  </si>
-  <si>
-    <t>A/raccoon/Washington/22-018406-002/2135</t>
-  </si>
-  <si>
     <t>R318W</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2136</t>
-  </si>
-  <si>
-    <t>A/raccoon/Washington/22-018406-002/2137</t>
-  </si>
-  <si>
     <t>I461V</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2138</t>
-  </si>
-  <si>
-    <t>A/raccoon/Washington/22-018406-002/2139</t>
-  </si>
-  <si>
     <t>P138L</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2140</t>
-  </si>
-  <si>
     <t>L236</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2141</t>
-  </si>
-  <si>
     <t>A283V</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2142</t>
-  </si>
-  <si>
     <t>F300S</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2143</t>
-  </si>
-  <si>
     <t>D305G</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2144</t>
-  </si>
-  <si>
     <t>M321</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2145</t>
-  </si>
-  <si>
     <t>V473</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2146</t>
-  </si>
-  <si>
     <t>S694G</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2147</t>
-  </si>
-  <si>
     <t>E298</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2148</t>
-  </si>
-  <si>
-    <t>A/raccoon/Washington/22-018406-002/2149</t>
-  </si>
-  <si>
     <t>S110N</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2150</t>
-  </si>
-  <si>
     <t>M404V</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2151</t>
-  </si>
-  <si>
     <t>E477</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2152</t>
-  </si>
-  <si>
     <t>P95S</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2153</t>
-  </si>
-  <si>
     <t>E107K</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2154</t>
-  </si>
-  <si>
     <t>E369</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2155</t>
-  </si>
-  <si>
-    <t>A/raccoon/Washington/22-018406-002/2156</t>
-  </si>
-  <si>
     <t>S180</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2157</t>
-  </si>
-  <si>
     <t>P302L</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2158</t>
-  </si>
-  <si>
     <t>W423L</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2159</t>
-  </si>
-  <si>
     <t>L4</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2160</t>
-  </si>
-  <si>
     <t>Y10C</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2161</t>
-  </si>
-  <si>
     <t>G194R</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2162</t>
-  </si>
-  <si>
     <t>F293</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2163</t>
-  </si>
-  <si>
-    <t>A/raccoon/Washington/22-018406-002/2164</t>
-  </si>
-  <si>
     <t>Q300*</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2165</t>
-  </si>
-  <si>
-    <t>A/raccoon/Washington/22-018406-002/2166</t>
-  </si>
-  <si>
     <t>D567</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2167</t>
-  </si>
-  <si>
     <t>P74S</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2168</t>
-  </si>
-  <si>
     <t>L258</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2169</t>
-  </si>
-  <si>
     <t>I302</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2170</t>
-  </si>
-  <si>
     <t>K387Q</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2171</t>
-  </si>
-  <si>
     <t>I682V</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2172</t>
-  </si>
-  <si>
     <t>C693R</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2173</t>
-  </si>
-  <si>
     <t>C415F</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2174</t>
-  </si>
-  <si>
     <t>C541</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2175</t>
-  </si>
-  <si>
-    <t>A/raccoon/Washington/22-018406-002/2176</t>
-  </si>
-  <si>
     <t>G657</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2177</t>
-  </si>
-  <si>
     <t>G357</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2178</t>
-  </si>
-  <si>
     <t>T45I</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2179</t>
-  </si>
-  <si>
     <t>M105</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2180</t>
-  </si>
-  <si>
     <t>T171I</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2181</t>
-  </si>
-  <si>
     <t>S376P</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2182</t>
-  </si>
-  <si>
     <t>Y385S</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2183</t>
-  </si>
-  <si>
     <t>V414M</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2184</t>
-  </si>
-  <si>
-    <t>A/raccoon/Washington/22-018406-002/2185</t>
-  </si>
-  <si>
     <t>N104S</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2186</t>
-  </si>
-  <si>
     <t>I108V</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2187</t>
-  </si>
-  <si>
     <t>S305</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2188</t>
-  </si>
-  <si>
     <t>V15F</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2189</t>
-  </si>
-  <si>
     <t>G245</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2190</t>
-  </si>
-  <si>
     <t>A266</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2191</t>
-  </si>
-  <si>
     <t>L267P</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2192</t>
-  </si>
-  <si>
     <t>P215S</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2193</t>
-  </si>
-  <si>
     <t>BALF 5dpi</t>
   </si>
   <si>
     <t>T128A</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2194</t>
-  </si>
-  <si>
     <t>L185P</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2195</t>
-  </si>
-  <si>
     <t>G85</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2196</t>
-  </si>
-  <si>
     <t>S181P</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2197</t>
-  </si>
-  <si>
     <t>D309N</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2198</t>
-  </si>
-  <si>
     <t>T371M</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2199</t>
-  </si>
-  <si>
     <t>E109</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2200</t>
-  </si>
-  <si>
     <t>Q186</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2201</t>
-  </si>
-  <si>
     <t>L224</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2202</t>
-  </si>
-  <si>
     <t>E256K</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2203</t>
-  </si>
-  <si>
     <t>K281E</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2204</t>
-  </si>
-  <si>
     <t>R350K</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2205</t>
-  </si>
-  <si>
     <t>L449F</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2206</t>
-  </si>
-  <si>
-    <t>A/raccoon/Washington/22-018406-002/2207</t>
-  </si>
-  <si>
     <t>Q180*</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2208</t>
-  </si>
-  <si>
     <t>D272N</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2209</t>
-  </si>
-  <si>
     <t>N321S</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2210</t>
-  </si>
-  <si>
-    <t>A/raccoon/Washington/22-018406-002/2211</t>
-  </si>
-  <si>
     <t>V341A</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2212</t>
-  </si>
-  <si>
     <t>W368*</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2213</t>
-  </si>
-  <si>
     <t>M477L</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2214</t>
-  </si>
-  <si>
     <t>S632F</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2215</t>
-  </si>
-  <si>
     <t>L686</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2216</t>
-  </si>
-  <si>
     <t>T204</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2217</t>
-  </si>
-  <si>
     <t>N405S</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2218</t>
-  </si>
-  <si>
     <t>R515G</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2219</t>
-  </si>
-  <si>
     <t>E18G</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2220</t>
-  </si>
-  <si>
     <t>T40I</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2221</t>
-  </si>
-  <si>
     <t>N235S</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2222</t>
-  </si>
-  <si>
     <t>D398</t>
   </si>
   <si>
-    <t>A/raccoon/Washington/22-018406-002/2223</t>
-  </si>
-  <si>
     <t>C417R</t>
-  </si>
-  <si>
-    <t>A/raccoon/Washington/22-018406-002/2224</t>
   </si>
   <si>
     <t>G308R</t>
@@ -1881,7 +1275,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1897,9 +1291,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2262,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H129" sqref="H129"/>
+    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2312,11 +1703,11 @@
       <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>417</v>
+      <c r="L1" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -2356,7 +1747,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>11</v>
@@ -2368,13 +1759,13 @@
         <v>1157</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="I3" s="4">
         <v>0.40770000000000001</v>
@@ -2385,7 +1776,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
@@ -2403,19 +1794,19 @@
         <v>14</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I4" s="4">
         <v>0.32479999999999998</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>419</v>
+        <v>216</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>217</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>420</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -2423,25 +1814,25 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2">
         <v>1125</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I5" s="4">
         <v>2.7099999999999999E-2</v>
@@ -2455,25 +1846,25 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2">
         <v>198</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I6" s="4">
         <v>1.12E-2</v>
@@ -2487,13 +1878,13 @@
         <v>11</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2">
         <v>1671</v>
@@ -2502,10 +1893,10 @@
         <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I7" s="4">
         <v>4.6199999999999998E-2</v>
@@ -2519,25 +1910,25 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E8" s="2">
         <v>1801</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I8" s="4">
         <v>8.8999999999999996E-2</v>
@@ -2548,13 +1939,13 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2">
         <v>1917</v>
@@ -2563,10 +1954,10 @@
         <v>14</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I9" s="4">
         <v>0.35570000000000002</v>
@@ -2580,25 +1971,25 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2">
         <v>444</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I10" s="4">
         <v>2.3199999999999998E-2</v>
@@ -2612,13 +2003,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2">
         <v>1355</v>
@@ -2630,7 +2021,7 @@
         <v>14</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I11" s="4">
         <v>0.35720000000000002</v>
@@ -2641,13 +2032,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2">
         <v>340</v>
@@ -2659,7 +2050,7 @@
         <v>14</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I12" s="4">
         <v>1.4E-2</v>
@@ -2670,25 +2061,25 @@
         <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2">
         <v>455</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I13" s="4">
         <v>5.9799999999999999E-2</v>
@@ -2699,25 +2090,25 @@
         <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2">
         <v>708</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I14" s="4">
         <v>0.1116</v>
@@ -2731,25 +2122,25 @@
         <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2">
         <v>1181</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="I15" s="4">
         <v>5.0999999999999997E-2</v>
@@ -2760,13 +2151,13 @@
         <v>61</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2">
         <v>300</v>
@@ -2775,10 +2166,10 @@
         <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="I16" s="4">
         <v>1.7299999999999999E-2</v>
@@ -2792,25 +2183,25 @@
         <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E17" s="2">
         <v>841</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I17" s="4">
         <v>3.1E-2</v>
@@ -2821,13 +2212,13 @@
         <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2">
         <v>1355</v>
@@ -2839,13 +2230,13 @@
         <v>14</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I18" s="4">
         <v>0.31309999999999999</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -2853,25 +2244,25 @@
         <v>61</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E19" s="2">
         <v>56</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I19" s="4">
         <v>0.1207</v>
@@ -2882,25 +2273,25 @@
         <v>61</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E20" s="2">
         <v>130</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="I20" s="4">
         <v>0.13819999999999999</v>
@@ -2911,13 +2302,13 @@
         <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2">
         <v>271</v>
@@ -2926,22 +2317,22 @@
         <v>14</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="I21" s="4">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>418</v>
+        <v>216</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>433</v>
+        <v>231</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>434</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
@@ -2949,13 +2340,13 @@
         <v>61</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2">
         <v>279</v>
@@ -2967,7 +2358,7 @@
         <v>14</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I22" s="4">
         <v>1.54E-2</v>
@@ -2981,13 +2372,13 @@
         <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E23" s="2">
         <v>312</v>
@@ -2999,7 +2390,7 @@
         <v>14</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="I23" s="4">
         <v>2.2800000000000001E-2</v>
@@ -3013,25 +2404,25 @@
         <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E24" s="2">
         <v>387</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I24" s="4">
         <v>3.2599999999999997E-2</v>
@@ -3045,25 +2436,25 @@
         <v>61</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E25" s="2">
         <v>446</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="I25" s="4">
         <v>1.24E-2</v>
@@ -3074,13 +2465,13 @@
         <v>61</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E26" s="2">
         <v>679</v>
@@ -3092,7 +2483,7 @@
         <v>14</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="I26" s="4">
         <v>2.46E-2</v>
@@ -3103,37 +2494,37 @@
         <v>61</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E27" s="2">
         <v>308</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="I27" s="4">
         <v>1.0699999999999999E-2</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>418</v>
+        <v>216</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>437</v>
+        <v>235</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>438</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -3141,25 +2532,25 @@
         <v>61</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E28" s="2">
         <v>487</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="I28" s="4">
         <v>1.9099999999999999E-2</v>
@@ -3173,10 +2564,10 @@
         <v>61</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>13</v>
@@ -3197,7 +2588,7 @@
         <v>0.81200000000000006</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
@@ -3205,10 +2596,10 @@
         <v>61</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>13</v>
@@ -3223,7 +2614,7 @@
         <v>15</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="I30" s="4">
         <v>3.27E-2</v>
@@ -3237,10 +2628,10 @@
         <v>61</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>13</v>
@@ -3249,19 +2640,19 @@
         <v>1157</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="I31" s="4">
         <v>0.1918</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
@@ -3269,10 +2660,10 @@
         <v>61</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>13</v>
@@ -3287,13 +2678,13 @@
         <v>14</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I32" s="4">
         <v>0.1913</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -3301,25 +2692,25 @@
         <v>61</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E33" s="2">
         <v>602</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="I33" s="4">
         <v>0.2349</v>
@@ -3330,25 +2721,25 @@
         <v>61</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E34" s="2">
         <v>1672</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="I34" s="4">
         <v>6.3500000000000001E-2</v>
@@ -3359,13 +2750,13 @@
         <v>61</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E35" s="2">
         <v>1917</v>
@@ -3374,16 +2765,16 @@
         <v>14</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I35" s="4">
         <v>0.83079999999999998</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -3391,13 +2782,13 @@
         <v>61</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E36" s="2">
         <v>1288</v>
@@ -3409,7 +2800,7 @@
         <v>14</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="I36" s="4">
         <v>0.33939999999999998</v>
@@ -3420,13 +2811,13 @@
         <v>61</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E37" s="2">
         <v>344</v>
@@ -3438,7 +2829,7 @@
         <v>15</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="I37" s="4">
         <v>1.35E-2</v>
@@ -3449,25 +2840,25 @@
         <v>61</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E38" s="2">
         <v>42</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="I38" s="4">
         <v>0.15909999999999999</v>
@@ -3481,37 +2872,37 @@
         <v>61</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E39" s="2">
         <v>47</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>101</v>
+        <v>64</v>
       </c>
       <c r="I39" s="4">
         <v>7.8200000000000006E-2</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>418</v>
+        <v>216</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>435</v>
+        <v>233</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>436</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
@@ -3519,25 +2910,25 @@
         <v>61</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E40" s="2">
         <v>387</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="I40" s="4">
         <v>0.66300000000000003</v>
@@ -3551,25 +2942,25 @@
         <v>61</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E41" s="2">
         <v>360</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="I41" s="4">
         <v>4.9000000000000002E-2</v>
@@ -3583,25 +2974,25 @@
         <v>61</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E42" s="2">
         <v>383</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="I42" s="4">
         <v>6.4799999999999996E-2</v>
@@ -3612,13 +3003,13 @@
         <v>61</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E43" s="2">
         <v>571</v>
@@ -3630,7 +3021,7 @@
         <v>15</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="I43" s="4">
         <v>3.0300000000000001E-2</v>
@@ -3641,25 +3032,25 @@
         <v>61</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E44" s="2">
         <v>2101</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="I44" s="4">
         <v>0.31819999999999998</v>
@@ -3670,25 +3061,25 @@
         <v>61</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E45" s="2">
         <v>712</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="I45" s="4">
         <v>0.1736</v>
@@ -3699,13 +3090,13 @@
         <v>61</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E46" s="2">
         <v>1917</v>
@@ -3714,16 +3105,16 @@
         <v>14</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I46" s="5">
         <v>1</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -3731,25 +3122,25 @@
         <v>61</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E47" s="2">
         <v>1307</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="I47" s="4">
         <v>4.9500000000000002E-2</v>
@@ -3760,13 +3151,13 @@
         <v>61</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E48" s="2">
         <v>242</v>
@@ -3775,10 +3166,10 @@
         <v>14</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
       <c r="I48" s="4">
         <v>1.14E-2</v>
@@ -3789,13 +3180,13 @@
         <v>61</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E49" s="2">
         <v>1355</v>
@@ -3807,13 +3198,13 @@
         <v>14</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I49" s="5">
         <v>1</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
@@ -3821,13 +3212,13 @@
         <v>61</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E50" s="2">
         <v>1362</v>
@@ -3839,7 +3230,7 @@
         <v>15</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="I50" s="4">
         <v>5.45E-2</v>
@@ -3853,25 +3244,25 @@
         <v>61</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E51" s="2">
         <v>375</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="I51" s="4">
         <v>0.28120000000000001</v>
@@ -3885,25 +3276,25 @@
         <v>61</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E52" s="2">
         <v>797</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="I52" s="4">
         <v>1.7399999999999999E-2</v>
@@ -3914,13 +3305,13 @@
         <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E53" s="2">
         <v>682</v>
@@ -3932,7 +3323,7 @@
         <v>14</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="I53" s="4">
         <v>1.7399999999999999E-2</v>
@@ -3943,25 +3334,25 @@
         <v>61</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E54" s="2">
         <v>765</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="I54" s="4">
         <v>1.67E-2</v>
@@ -3975,25 +3366,25 @@
         <v>61</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>130</v>
+        <v>12</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E55" s="2">
         <v>842</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="I55" s="4">
         <v>1.34E-2</v>
@@ -4004,13 +3395,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E56" s="2">
         <v>860</v>
@@ -4022,7 +3413,7 @@
         <v>14</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="I56" s="4">
         <v>3.7499999999999999E-2</v>
@@ -4033,10 +3424,10 @@
         <v>65</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>13</v>
@@ -4045,13 +3436,13 @@
         <v>809</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="I57" s="4">
         <v>0.1065</v>
@@ -4062,10 +3453,10 @@
         <v>65</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>13</v>
@@ -4074,19 +3465,19 @@
         <v>1157</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="I58" s="5">
         <v>1</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -4094,10 +3485,10 @@
         <v>65</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>13</v>
@@ -4106,19 +3497,19 @@
         <v>1276</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="I59" s="4">
         <v>3.5700000000000003E-2</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -4126,10 +3517,10 @@
         <v>65</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>13</v>
@@ -4138,13 +3529,13 @@
         <v>1744</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="I60" s="4">
         <v>3.1899999999999998E-2</v>
@@ -4155,10 +3546,10 @@
         <v>65</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>13</v>
@@ -4167,13 +3558,13 @@
         <v>2048</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="I61" s="4">
         <v>0.26200000000000001</v>
@@ -4184,10 +3575,10 @@
         <v>65</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>13</v>
@@ -4202,13 +3593,13 @@
         <v>14</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I62" s="5">
         <v>1</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -4216,13 +3607,13 @@
         <v>65</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E63" s="2">
         <v>687</v>
@@ -4234,7 +3625,7 @@
         <v>15</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="I63" s="4">
         <v>3.3799999999999997E-2</v>
@@ -4248,25 +3639,25 @@
         <v>65</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E64" s="2">
         <v>931</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="I64" s="4">
         <v>3.1399999999999997E-2</v>
@@ -4277,13 +3668,13 @@
         <v>65</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E65" s="2">
         <v>1525</v>
@@ -4295,7 +3686,7 @@
         <v>14</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="I65" s="4">
         <v>0.32819999999999999</v>
@@ -4306,13 +3697,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E66" s="2">
         <v>220</v>
@@ -4324,7 +3715,7 @@
         <v>15</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="I66" s="4">
         <v>1.1299999999999999E-2</v>
@@ -4335,25 +3726,25 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E67" s="2">
         <v>507</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="I67" s="4">
         <v>0.42649999999999999</v>
@@ -4367,25 +3758,25 @@
         <v>65</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E68" s="2">
         <v>963</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="I68" s="4">
         <v>0.27310000000000001</v>
@@ -4399,13 +3790,13 @@
         <v>65</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E69" s="2">
         <v>1179</v>
@@ -4417,7 +3808,7 @@
         <v>15</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="I69" s="4">
         <v>4.8399999999999999E-2</v>
@@ -4431,13 +3822,13 @@
         <v>65</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E70" s="2">
         <v>1472</v>
@@ -4449,7 +3840,7 @@
         <v>15</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="I70" s="4">
         <v>8.3900000000000002E-2</v>
@@ -4460,13 +3851,13 @@
         <v>65</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E71" s="2">
         <v>547</v>
@@ -4478,7 +3869,7 @@
         <v>14</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="I71" s="4">
         <v>1.52E-2</v>
@@ -4489,13 +3880,13 @@
         <v>65</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E72" s="2">
         <v>448</v>
@@ -4507,7 +3898,7 @@
         <v>15</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="I72" s="4">
         <v>1.2500000000000001E-2</v>
@@ -4518,13 +3909,13 @@
         <v>65</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E73" s="2">
         <v>569</v>
@@ -4536,7 +3927,7 @@
         <v>15</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="I73" s="4">
         <v>4.1200000000000001E-2</v>
@@ -4547,25 +3938,25 @@
         <v>65</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E74" s="2">
         <v>102</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="I74" s="4">
         <v>2.4299999999999999E-2</v>
@@ -4579,13 +3970,13 @@
         <v>65</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E75" s="2">
         <v>631</v>
@@ -4597,7 +3988,7 @@
         <v>15</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="I75" s="4">
         <v>4.7100000000000003E-2</v>
@@ -4608,25 +3999,25 @@
         <v>65</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>171</v>
+        <v>12</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E76" s="2">
         <v>821</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="I76" s="4">
         <v>4.4900000000000002E-2</v>
@@ -4637,10 +4028,10 @@
         <v>67</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>13</v>
@@ -4649,19 +4040,19 @@
         <v>1147</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="I77" s="4">
         <v>1.14E-2</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -4669,10 +4060,10 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>13</v>
@@ -4687,7 +4078,7 @@
         <v>14</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="I78" s="4">
         <v>1.12E-2</v>
@@ -4698,13 +4089,13 @@
         <v>67</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E79" s="2">
         <v>695</v>
@@ -4716,7 +4107,7 @@
         <v>15</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="I79" s="4">
         <v>1.2500000000000001E-2</v>
@@ -4727,13 +4118,13 @@
         <v>67</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E80" s="2">
         <v>745</v>
@@ -4742,10 +4133,10 @@
         <v>14</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="I80" s="4">
         <v>1.03E-2</v>
@@ -4759,31 +4150,31 @@
         <v>67</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E81" s="2">
         <v>1256</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>183</v>
+        <v>104</v>
       </c>
       <c r="I81" s="4">
         <v>1.47E-2</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
@@ -4791,25 +4182,25 @@
         <v>67</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E82" s="2">
         <v>211</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="I82" s="4">
         <v>3.0700000000000002E-2</v>
@@ -4823,13 +4214,13 @@
         <v>67</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E83" s="2">
         <v>844</v>
@@ -4841,7 +4232,7 @@
         <v>15</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="I83" s="4">
         <v>9.3700000000000006E-2</v>
@@ -4852,25 +4243,25 @@
         <v>67</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E84" s="2">
         <v>1194</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="I84" s="4">
         <v>1.34E-2</v>
@@ -4884,13 +4275,13 @@
         <v>67</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E85" s="2">
         <v>531</v>
@@ -4902,7 +4293,7 @@
         <v>14</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="I85" s="4">
         <v>2.2499999999999999E-2</v>
@@ -4916,25 +4307,25 @@
         <v>67</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E86" s="2">
         <v>398</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="I86" s="4">
         <v>2.3199999999999998E-2</v>
@@ -4945,25 +4336,25 @@
         <v>67</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E87" s="2">
         <v>463</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>195</v>
+        <v>110</v>
       </c>
       <c r="I87" s="4">
         <v>1.44E-2</v>
@@ -4974,13 +4365,13 @@
         <v>67</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E88" s="2">
         <v>1068</v>
@@ -4992,7 +4383,7 @@
         <v>14</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c r="I88" s="4">
         <v>1.55E-2</v>
@@ -5006,25 +4397,25 @@
         <v>67</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>198</v>
+        <v>12</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E89" s="2">
         <v>1291</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c r="I89" s="4">
         <v>2.6499999999999999E-2</v>
@@ -5035,37 +4426,37 @@
         <v>67</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E90" s="2">
         <v>59</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="I90" s="4">
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>418</v>
+        <v>216</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>435</v>
+        <v>233</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>436</v>
+        <v>234</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -5073,25 +4464,25 @@
         <v>67</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E91" s="2">
         <v>255</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>203</v>
+        <v>114</v>
       </c>
       <c r="I91" s="4">
         <v>1.4800000000000001E-2</v>
@@ -5105,13 +4496,13 @@
         <v>67</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E92" s="2">
         <v>283</v>
@@ -5120,10 +4511,10 @@
         <v>14</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>205</v>
+        <v>115</v>
       </c>
       <c r="I92" s="4">
         <v>1.04E-2</v>
@@ -5137,13 +4528,13 @@
         <v>67</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E93" s="2">
         <v>441</v>
@@ -5155,7 +4546,7 @@
         <v>14</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>207</v>
+        <v>116</v>
       </c>
       <c r="I93" s="4">
         <v>1.6799999999999999E-2</v>
@@ -5169,13 +4560,13 @@
         <v>67</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E94" s="2">
         <v>139</v>
@@ -5184,10 +4575,10 @@
         <v>15</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="I94" s="4">
         <v>2.76E-2</v>
@@ -5198,10 +4589,10 @@
         <v>69</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>210</v>
+        <v>12</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>13</v>
@@ -5210,13 +4601,13 @@
         <v>1465</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>211</v>
+        <v>118</v>
       </c>
       <c r="I95" s="4">
         <v>0.88700000000000001</v>
@@ -5227,25 +4618,25 @@
         <v>69</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E96" s="2">
         <v>1158</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="I96" s="4">
         <v>1.01E-2</v>
@@ -5259,25 +4650,25 @@
         <v>69</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E97" s="2">
         <v>57</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>215</v>
+        <v>120</v>
       </c>
       <c r="I97" s="4">
         <v>1.6500000000000001E-2</v>
@@ -5291,10 +4682,10 @@
         <v>58</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>216</v>
+        <v>12</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>13</v>
@@ -5315,7 +4706,7 @@
         <v>0.51129999999999998</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
@@ -5323,10 +4714,10 @@
         <v>58</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>218</v>
+        <v>12</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>13</v>
@@ -5335,19 +4726,19 @@
         <v>1157</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G99" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="I99" s="4">
         <v>0.36130000000000001</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
@@ -5355,10 +4746,10 @@
         <v>58</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>13</v>
@@ -5373,13 +4764,13 @@
         <v>14</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I100" s="4">
         <v>0.18909999999999999</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
@@ -5387,31 +4778,31 @@
         <v>58</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E101" s="2">
         <v>1125</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I101" s="4">
         <v>2.92E-2</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>221</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
@@ -5419,31 +4810,31 @@
         <v>58</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>222</v>
+        <v>12</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E102" s="2">
         <v>198</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I102" s="4">
         <v>1.6799999999999999E-2</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
@@ -5451,13 +4842,13 @@
         <v>58</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E103" s="2">
         <v>1671</v>
@@ -5466,16 +4857,16 @@
         <v>15</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I103" s="4">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>225</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
@@ -5483,31 +4874,31 @@
         <v>58</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>226</v>
+        <v>12</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E104" s="2">
         <v>1801</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I104" s="4">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>227</v>
+        <v>125</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.2">
@@ -5515,13 +4906,13 @@
         <v>58</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E105" s="2">
         <v>1917</v>
@@ -5530,16 +4921,16 @@
         <v>14</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I105" s="4">
         <v>0.43440000000000001</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.2">
@@ -5547,13 +4938,13 @@
         <v>58</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E106" s="2">
         <v>799</v>
@@ -5565,19 +4956,19 @@
         <v>14</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>230</v>
+        <v>126</v>
       </c>
       <c r="I106" s="4">
         <v>1.11E-2</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="L106" s="12" t="s">
-        <v>425</v>
+        <v>216</v>
+      </c>
+      <c r="L106" s="11" t="s">
+        <v>223</v>
       </c>
       <c r="M106" s="2" t="s">
-        <v>426</v>
+        <v>224</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.2">
@@ -5585,31 +4976,31 @@
         <v>58</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E107" s="2">
         <v>444</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I107" s="4">
         <v>1.72E-2</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>232</v>
+        <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.2">
@@ -5617,13 +5008,13 @@
         <v>58</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E108" s="2">
         <v>1355</v>
@@ -5635,13 +5026,13 @@
         <v>14</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I108" s="4">
         <v>0.48099999999999998</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
@@ -5649,10 +5040,10 @@
         <v>59</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>234</v>
+        <v>12</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>13</v>
@@ -5661,13 +5052,13 @@
         <v>152</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="I109" s="4">
         <v>7.9200000000000007E-2</v>
@@ -5678,10 +5069,10 @@
         <v>59</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>13</v>
@@ -5690,13 +5081,13 @@
         <v>388</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>237</v>
+        <v>129</v>
       </c>
       <c r="I110" s="4">
         <v>1.2500000000000001E-2</v>
@@ -5707,10 +5098,10 @@
         <v>59</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>13</v>
@@ -5725,7 +5116,7 @@
         <v>15</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>239</v>
+        <v>130</v>
       </c>
       <c r="I111" s="4">
         <v>1.03E-2</v>
@@ -5739,10 +5130,10 @@
         <v>59</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>13</v>
@@ -5751,13 +5142,13 @@
         <v>835</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>241</v>
+        <v>131</v>
       </c>
       <c r="I112" s="4">
         <v>5.4100000000000002E-2</v>
@@ -5768,10 +5159,10 @@
         <v>59</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>13</v>
@@ -5780,13 +5171,13 @@
         <v>890</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>243</v>
+        <v>132</v>
       </c>
       <c r="I113" s="4">
         <v>5.4699999999999999E-2</v>
@@ -5797,10 +5188,10 @@
         <v>59</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>13</v>
@@ -5821,7 +5212,7 @@
         <v>0.80189999999999995</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
@@ -5829,10 +5220,10 @@
         <v>59</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>13</v>
@@ -5844,10 +5235,10 @@
         <v>14</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>246</v>
+        <v>133</v>
       </c>
       <c r="I115" s="4">
         <v>7.2300000000000003E-2</v>
@@ -5858,10 +5249,10 @@
         <v>59</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>13</v>
@@ -5870,19 +5261,19 @@
         <v>1157</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G116" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H116" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="I116" s="4">
         <v>0.22450000000000001</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
@@ -5890,10 +5281,10 @@
         <v>59</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>13</v>
@@ -5908,7 +5299,7 @@
         <v>15</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>249</v>
+        <v>134</v>
       </c>
       <c r="I117" s="4">
         <v>3.4599999999999999E-2</v>
@@ -5919,10 +5310,10 @@
         <v>59</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>13</v>
@@ -5937,13 +5328,13 @@
         <v>14</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I118" s="4">
         <v>0.20219999999999999</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
@@ -5951,25 +5342,25 @@
         <v>59</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E119" s="2">
         <v>413</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>252</v>
+        <v>135</v>
       </c>
       <c r="I119" s="4">
         <v>1.6199999999999999E-2</v>
@@ -5980,13 +5371,13 @@
         <v>59</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>253</v>
+        <v>12</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E120" s="2">
         <v>708</v>
@@ -5998,7 +5389,7 @@
         <v>14</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>254</v>
+        <v>136</v>
       </c>
       <c r="I120" s="4">
         <v>0.3715</v>
@@ -6012,25 +5403,25 @@
         <v>59</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E121" s="2">
         <v>848</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>256</v>
+        <v>137</v>
       </c>
       <c r="I121" s="4">
         <v>1.84E-2</v>
@@ -6041,25 +5432,25 @@
         <v>59</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>257</v>
+        <v>12</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E122" s="2">
         <v>899</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>258</v>
+        <v>138</v>
       </c>
       <c r="I122" s="4">
         <v>1.2999999999999999E-2</v>
@@ -6070,13 +5461,13 @@
         <v>59</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E123" s="2">
         <v>914</v>
@@ -6088,7 +5479,7 @@
         <v>15</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>260</v>
+        <v>139</v>
       </c>
       <c r="I123" s="4">
         <v>1.15E-2</v>
@@ -6099,13 +5490,13 @@
         <v>59</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>261</v>
+        <v>12</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E124" s="2">
         <v>963</v>
@@ -6117,7 +5508,7 @@
         <v>14</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>262</v>
+        <v>140</v>
       </c>
       <c r="I124" s="4">
         <v>1.1299999999999999E-2</v>
@@ -6131,25 +5522,25 @@
         <v>59</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E125" s="2">
         <v>1419</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>264</v>
+        <v>141</v>
       </c>
       <c r="I125" s="4">
         <v>6.54E-2</v>
@@ -6163,13 +5554,13 @@
         <v>59</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E126" s="2">
         <v>2080</v>
@@ -6181,7 +5572,7 @@
         <v>15</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>266</v>
+        <v>142</v>
       </c>
       <c r="I126" s="4">
         <v>2.92E-2</v>
@@ -6192,13 +5583,13 @@
         <v>59</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>267</v>
+        <v>12</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E127" s="2">
         <v>894</v>
@@ -6210,7 +5601,7 @@
         <v>14</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>268</v>
+        <v>143</v>
       </c>
       <c r="I127" s="4">
         <v>0.1512</v>
@@ -6224,13 +5615,13 @@
         <v>59</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>269</v>
+        <v>12</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E128" s="2">
         <v>1917</v>
@@ -6239,16 +5630,16 @@
         <v>14</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I128" s="4">
         <v>0.99619999999999997</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
@@ -6256,13 +5647,13 @@
         <v>59</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>270</v>
+        <v>12</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E129" s="2">
         <v>329</v>
@@ -6274,19 +5665,19 @@
         <v>14</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>271</v>
+        <v>144</v>
       </c>
       <c r="I129" s="4">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>418</v>
+        <v>216</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>427</v>
+        <v>225</v>
       </c>
       <c r="M129" s="2" t="s">
-        <v>428</v>
+        <v>226</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
@@ -6294,13 +5685,13 @@
         <v>59</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>272</v>
+        <v>12</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E130" s="2">
         <v>1210</v>
@@ -6312,19 +5703,19 @@
         <v>15</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>273</v>
+        <v>145</v>
       </c>
       <c r="I130" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="L130" s="12" t="s">
-        <v>429</v>
+        <v>216</v>
+      </c>
+      <c r="L130" s="11" t="s">
+        <v>227</v>
       </c>
       <c r="M130" s="2" t="s">
-        <v>430</v>
+        <v>228</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
@@ -6332,13 +5723,13 @@
         <v>59</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E131" s="2">
         <v>1431</v>
@@ -6350,7 +5741,7 @@
         <v>14</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>275</v>
+        <v>146</v>
       </c>
       <c r="I131" s="4">
         <v>1.5800000000000002E-2</v>
@@ -6364,25 +5755,25 @@
         <v>59</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>276</v>
+        <v>12</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E132" s="2">
         <v>283</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>277</v>
+        <v>147</v>
       </c>
       <c r="I132" s="4">
         <v>2.0899999999999998E-2</v>
@@ -6393,13 +5784,13 @@
         <v>59</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>278</v>
+        <v>12</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E133" s="2">
         <v>319</v>
@@ -6411,7 +5802,7 @@
         <v>14</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>279</v>
+        <v>148</v>
       </c>
       <c r="I133" s="4">
         <v>1.43E-2</v>
@@ -6422,13 +5813,13 @@
         <v>59</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E134" s="2">
         <v>1107</v>
@@ -6440,7 +5831,7 @@
         <v>15</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>281</v>
+        <v>149</v>
       </c>
       <c r="I134" s="4">
         <v>1.34E-2</v>
@@ -6454,13 +5845,13 @@
         <v>59</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>282</v>
+        <v>12</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E135" s="2">
         <v>1355</v>
@@ -6472,13 +5863,13 @@
         <v>14</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I135" s="4">
         <v>0.90029999999999999</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
@@ -6486,13 +5877,13 @@
         <v>59</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>283</v>
+        <v>12</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E136" s="2">
         <v>540</v>
@@ -6504,7 +5895,7 @@
         <v>14</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>284</v>
+        <v>150</v>
       </c>
       <c r="I136" s="4">
         <v>1.18E-2</v>
@@ -6518,25 +5909,25 @@
         <v>59</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>285</v>
+        <v>12</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E137" s="2">
         <v>905</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>286</v>
+        <v>151</v>
       </c>
       <c r="I137" s="4">
         <v>1.8700000000000001E-2</v>
@@ -6547,13 +5938,13 @@
         <v>59</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E138" s="2">
         <v>1268</v>
@@ -6562,10 +5953,10 @@
         <v>15</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>288</v>
+        <v>152</v>
       </c>
       <c r="I138" s="4">
         <v>0.78649999999999998</v>
@@ -6576,13 +5967,13 @@
         <v>59</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>289</v>
+        <v>12</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E139" s="2">
         <v>12</v>
@@ -6594,7 +5985,7 @@
         <v>15</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>290</v>
+        <v>153</v>
       </c>
       <c r="I139" s="4">
         <v>1.35E-2</v>
@@ -6608,13 +5999,13 @@
         <v>59</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>291</v>
+        <v>12</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E140" s="2">
         <v>29</v>
@@ -6626,7 +6017,7 @@
         <v>15</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>292</v>
+        <v>154</v>
       </c>
       <c r="I140" s="4">
         <v>1.9199999999999998E-2</v>
@@ -6637,13 +6028,13 @@
         <v>59</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E141" s="2">
         <v>580</v>
@@ -6655,7 +6046,7 @@
         <v>14</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>294</v>
+        <v>155</v>
       </c>
       <c r="I141" s="4">
         <v>1.15E-2</v>
@@ -6666,25 +6057,25 @@
         <v>59</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>295</v>
+        <v>12</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E142" s="2">
         <v>879</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>296</v>
+        <v>156</v>
       </c>
       <c r="I142" s="4">
         <v>3.7900000000000003E-2</v>
@@ -6698,13 +6089,13 @@
         <v>59</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E143" s="2">
         <v>279</v>
@@ -6713,10 +6104,10 @@
         <v>15</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="I143" s="4">
         <v>1.83E-2</v>
@@ -6730,10 +6121,10 @@
         <v>60</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>13</v>
@@ -6742,19 +6133,19 @@
         <v>898</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>299</v>
+        <v>157</v>
       </c>
       <c r="I144" s="4">
         <v>2.4199999999999999E-2</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
@@ -6762,10 +6153,10 @@
         <v>60</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>13</v>
@@ -6786,7 +6177,7 @@
         <v>0.85780000000000001</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
@@ -6794,10 +6185,10 @@
         <v>60</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>301</v>
+        <v>12</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>13</v>
@@ -6806,13 +6197,13 @@
         <v>1701</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>302</v>
+        <v>158</v>
       </c>
       <c r="I146" s="4">
         <v>2.18E-2</v>
@@ -6826,25 +6217,25 @@
         <v>60</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>303</v>
+        <v>12</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E147" s="2">
         <v>220</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>304</v>
+        <v>159</v>
       </c>
       <c r="I147" s="4">
         <v>2.53E-2</v>
@@ -6855,13 +6246,13 @@
         <v>60</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>305</v>
+        <v>12</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E148" s="2">
         <v>774</v>
@@ -6873,7 +6264,7 @@
         <v>14</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>306</v>
+        <v>160</v>
       </c>
       <c r="I148" s="4">
         <v>4.0300000000000002E-2</v>
@@ -6887,31 +6278,31 @@
         <v>60</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>307</v>
+        <v>12</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E149" s="2">
         <v>906</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>308</v>
+        <v>161</v>
       </c>
       <c r="I149" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
@@ -6919,13 +6310,13 @@
         <v>60</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>309</v>
+        <v>12</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E150" s="2">
         <v>1159</v>
@@ -6934,10 +6325,10 @@
         <v>14</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>310</v>
+        <v>162</v>
       </c>
       <c r="I150" s="4">
         <v>1.6199999999999999E-2</v>
@@ -6948,13 +6339,13 @@
         <v>60</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>311</v>
+        <v>12</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E151" s="2">
         <v>2044</v>
@@ -6966,7 +6357,7 @@
         <v>15</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>312</v>
+        <v>163</v>
       </c>
       <c r="I151" s="4">
         <v>0.26350000000000001</v>
@@ -6977,25 +6368,25 @@
         <v>60</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>313</v>
+        <v>12</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E152" s="2">
         <v>2077</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>314</v>
+        <v>164</v>
       </c>
       <c r="I152" s="4">
         <v>2.4299999999999999E-2</v>
@@ -7006,13 +6397,13 @@
         <v>60</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>315</v>
+        <v>12</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E153" s="2">
         <v>1244</v>
@@ -7021,10 +6412,10 @@
         <v>15</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>316</v>
+        <v>165</v>
       </c>
       <c r="I153" s="4">
         <v>4.5499999999999999E-2</v>
@@ -7035,25 +6426,25 @@
         <v>60</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>317</v>
+        <v>12</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E154" s="2">
         <v>1623</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>318</v>
+        <v>166</v>
       </c>
       <c r="I154" s="4">
         <v>1.4800000000000001E-2</v>
@@ -7067,13 +6458,13 @@
         <v>60</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>319</v>
+        <v>12</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E155" s="2">
         <v>1917</v>
@@ -7082,16 +6473,16 @@
         <v>14</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I155" s="4">
         <v>0.89670000000000005</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
@@ -7099,13 +6490,13 @@
         <v>60</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>320</v>
+        <v>12</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E156" s="2">
         <v>1971</v>
@@ -7117,7 +6508,7 @@
         <v>14</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>321</v>
+        <v>167</v>
       </c>
       <c r="I156" s="4">
         <v>2.9700000000000001E-2</v>
@@ -7131,13 +6522,13 @@
         <v>60</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>322</v>
+        <v>12</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E157" s="2">
         <v>1071</v>
@@ -7149,7 +6540,7 @@
         <v>15</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>323</v>
+        <v>168</v>
       </c>
       <c r="I157" s="4">
         <v>1.55E-2</v>
@@ -7163,25 +6554,25 @@
         <v>60</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>324</v>
+        <v>12</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E158" s="2">
         <v>134</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>325</v>
+        <v>169</v>
       </c>
       <c r="I158" s="4">
         <v>1.2699999999999999E-2</v>
@@ -7192,13 +6583,13 @@
         <v>60</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>326</v>
+        <v>12</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E159" s="2">
         <v>315</v>
@@ -7207,10 +6598,10 @@
         <v>15</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>327</v>
+        <v>170</v>
       </c>
       <c r="I159" s="4">
         <v>4.4900000000000002E-2</v>
@@ -7224,25 +6615,25 @@
         <v>60</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>328</v>
+        <v>12</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E160" s="2">
         <v>512</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>329</v>
+        <v>171</v>
       </c>
       <c r="I160" s="4">
         <v>1.0699999999999999E-2</v>
@@ -7253,25 +6644,25 @@
         <v>60</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>330</v>
+        <v>12</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E161" s="2">
         <v>1126</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>331</v>
+        <v>172</v>
       </c>
       <c r="I161" s="4">
         <v>1.09E-2</v>
@@ -7282,13 +6673,13 @@
         <v>60</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>332</v>
+        <v>12</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E162" s="2">
         <v>1154</v>
@@ -7297,10 +6688,10 @@
         <v>14</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>333</v>
+        <v>173</v>
       </c>
       <c r="I162" s="4">
         <v>1.6500000000000001E-2</v>
@@ -7311,13 +6702,13 @@
         <v>60</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>334</v>
+        <v>12</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E163" s="2">
         <v>1240</v>
@@ -7329,7 +6720,7 @@
         <v>14</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>335</v>
+        <v>174</v>
       </c>
       <c r="I163" s="4">
         <v>2.6499999999999999E-2</v>
@@ -7340,13 +6731,13 @@
         <v>60</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>336</v>
+        <v>12</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E164" s="2">
         <v>1355</v>
@@ -7358,13 +6749,13 @@
         <v>14</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I164" s="4">
         <v>0.79620000000000002</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
@@ -7372,13 +6763,13 @@
         <v>60</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>337</v>
+        <v>12</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E165" s="2">
         <v>311</v>
@@ -7390,7 +6781,7 @@
         <v>15</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>338</v>
+        <v>175</v>
       </c>
       <c r="I165" s="4">
         <v>1.3100000000000001E-2</v>
@@ -7401,13 +6792,13 @@
         <v>60</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>339</v>
+        <v>12</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E166" s="2">
         <v>322</v>
@@ -7419,7 +6810,7 @@
         <v>15</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>340</v>
+        <v>176</v>
       </c>
       <c r="I166" s="4">
         <v>1.11E-2</v>
@@ -7430,25 +6821,25 @@
         <v>60</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>341</v>
+        <v>12</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E167" s="2">
         <v>915</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>342</v>
+        <v>177</v>
       </c>
       <c r="I167" s="4">
         <v>1.11E-2</v>
@@ -7462,13 +6853,13 @@
         <v>60</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>343</v>
+        <v>12</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E168" s="2">
         <v>43</v>
@@ -7477,10 +6868,10 @@
         <v>15</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>344</v>
+        <v>178</v>
       </c>
       <c r="I168" s="4">
         <v>2.86E-2</v>
@@ -7491,13 +6882,13 @@
         <v>60</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>345</v>
+        <v>12</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E169" s="2">
         <v>735</v>
@@ -7509,7 +6900,7 @@
         <v>15</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>346</v>
+        <v>179</v>
       </c>
       <c r="I169" s="4">
         <v>1.2200000000000001E-2</v>
@@ -7523,13 +6914,13 @@
         <v>60</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>347</v>
+        <v>12</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E170" s="2">
         <v>798</v>
@@ -7538,10 +6929,10 @@
         <v>14</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>348</v>
+        <v>180</v>
       </c>
       <c r="I170" s="4">
         <v>1.6199999999999999E-2</v>
@@ -7555,25 +6946,25 @@
         <v>60</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>349</v>
+        <v>12</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E171" s="2">
         <v>800</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>350</v>
+        <v>181</v>
       </c>
       <c r="I171" s="4">
         <v>1.9E-2</v>
@@ -7584,25 +6975,25 @@
         <v>60</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>351</v>
+        <v>12</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E172" s="2">
         <v>643</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>352</v>
+        <v>182</v>
       </c>
       <c r="I172" s="4">
         <v>4.7199999999999999E-2</v>
@@ -7613,13 +7004,13 @@
         <v>63</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>353</v>
+        <v>12</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E173" s="2">
         <v>382</v>
@@ -7631,7 +7022,7 @@
         <v>15</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>355</v>
+        <v>184</v>
       </c>
       <c r="I173" s="5">
         <v>0.5</v>
@@ -7642,25 +7033,25 @@
         <v>63</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>356</v>
+        <v>12</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="E174" s="2">
         <v>554</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>357</v>
+        <v>185</v>
       </c>
       <c r="I174" s="5">
         <v>0.06</v>
@@ -7671,10 +7062,10 @@
         <v>65</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>358</v>
+        <v>12</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>13</v>
@@ -7689,7 +7080,7 @@
         <v>14</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>359</v>
+        <v>186</v>
       </c>
       <c r="I175" s="4">
         <v>6.9199999999999998E-2</v>
@@ -7703,10 +7094,10 @@
         <v>65</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>13</v>
@@ -7715,13 +7106,13 @@
         <v>541</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>361</v>
+        <v>187</v>
       </c>
       <c r="I176" s="4">
         <v>2.0400000000000001E-2</v>
@@ -7732,10 +7123,10 @@
         <v>65</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>362</v>
+        <v>12</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>13</v>
@@ -7750,19 +7141,19 @@
         <v>14</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>363</v>
+        <v>188</v>
       </c>
       <c r="I177" s="4">
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="K177" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="L177" s="12" t="s">
-        <v>421</v>
+        <v>216</v>
+      </c>
+      <c r="L177" s="11" t="s">
+        <v>219</v>
       </c>
       <c r="M177" s="2" t="s">
-        <v>422</v>
+        <v>220</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.2">
@@ -7770,10 +7161,10 @@
         <v>65</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>364</v>
+        <v>12</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>13</v>
@@ -7782,13 +7173,13 @@
         <v>1112</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>365</v>
+        <v>189</v>
       </c>
       <c r="I178" s="4">
         <v>1.55E-2</v>
@@ -7799,13 +7190,13 @@
         <v>65</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>366</v>
+        <v>12</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E179" s="2">
         <v>327</v>
@@ -7817,7 +7208,7 @@
         <v>15</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>367</v>
+        <v>190</v>
       </c>
       <c r="I179" s="4">
         <v>3.6299999999999999E-2</v>
@@ -7831,13 +7222,13 @@
         <v>65</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>368</v>
+        <v>12</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E180" s="2">
         <v>558</v>
@@ -7849,7 +7240,7 @@
         <v>14</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>369</v>
+        <v>191</v>
       </c>
       <c r="I180" s="4">
         <v>1.44E-2</v>
@@ -7863,25 +7254,25 @@
         <v>65</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>370</v>
+        <v>12</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E181" s="2">
         <v>670</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>371</v>
+        <v>192</v>
       </c>
       <c r="I181" s="4">
         <v>1.29E-2</v>
@@ -7895,13 +7286,13 @@
         <v>65</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>372</v>
+        <v>12</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E182" s="2">
         <v>766</v>
@@ -7913,19 +7304,19 @@
         <v>14</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>373</v>
+        <v>193</v>
       </c>
       <c r="I182" s="4">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="K182" s="2" t="s">
-        <v>418</v>
+        <v>216</v>
       </c>
       <c r="L182" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="M182" s="12" t="s">
-        <v>423</v>
+        <v>222</v>
+      </c>
+      <c r="M182" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.2">
@@ -7933,13 +7324,13 @@
         <v>65</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>374</v>
+        <v>12</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E183" s="2">
         <v>841</v>
@@ -7951,7 +7342,7 @@
         <v>15</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>375</v>
+        <v>194</v>
       </c>
       <c r="I183" s="4">
         <v>1.0699999999999999E-2</v>
@@ -7962,13 +7353,13 @@
         <v>65</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>376</v>
+        <v>12</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E184" s="2">
         <v>1049</v>
@@ -7980,7 +7371,7 @@
         <v>14</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>377</v>
+        <v>195</v>
       </c>
       <c r="I184" s="4">
         <v>1.0800000000000001E-2</v>
@@ -7991,25 +7382,25 @@
         <v>65</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>378</v>
+        <v>12</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E185" s="2">
         <v>1345</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>379</v>
+        <v>196</v>
       </c>
       <c r="I185" s="4">
         <v>1.09E-2</v>
@@ -8020,31 +7411,31 @@
         <v>65</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>380</v>
+        <v>12</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E186" s="2">
         <v>198</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I186" s="4">
         <v>1.54E-2</v>
       </c>
       <c r="J186" s="2" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.2">
@@ -8052,31 +7443,31 @@
         <v>65</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>381</v>
+        <v>12</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E187" s="2">
         <v>538</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>382</v>
+        <v>197</v>
       </c>
       <c r="I187" s="4">
         <v>1.24E-2</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.2">
@@ -8084,13 +7475,13 @@
         <v>65</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>383</v>
+        <v>12</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E188" s="2">
         <v>814</v>
@@ -8102,7 +7493,7 @@
         <v>14</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>384</v>
+        <v>198</v>
       </c>
       <c r="I188" s="4">
         <v>1.06E-2</v>
@@ -8113,13 +7504,13 @@
         <v>65</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>385</v>
+        <v>12</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E189" s="2">
         <v>962</v>
@@ -8131,7 +7522,7 @@
         <v>15</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>386</v>
+        <v>199</v>
       </c>
       <c r="I189" s="4">
         <v>1.0500000000000001E-2</v>
@@ -8142,25 +7533,25 @@
         <v>65</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>387</v>
+        <v>12</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E190" s="2">
         <v>963</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="I190" s="4">
         <v>1.11E-2</v>
@@ -8174,25 +7565,25 @@
         <v>65</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>388</v>
+        <v>12</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E191" s="2">
         <v>1022</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>389</v>
+        <v>200</v>
       </c>
       <c r="I191" s="5">
         <v>0.01</v>
@@ -8203,13 +7594,13 @@
         <v>65</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>390</v>
+        <v>12</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E192" s="2">
         <v>1103</v>
@@ -8221,13 +7612,13 @@
         <v>14</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>391</v>
+        <v>201</v>
       </c>
       <c r="I192" s="4">
         <v>1.2200000000000001E-2</v>
       </c>
       <c r="J192" s="2" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.2">
@@ -8235,13 +7626,13 @@
         <v>65</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>392</v>
+        <v>12</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E193" s="2">
         <v>1429</v>
@@ -8250,10 +7641,10 @@
         <v>14</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>393</v>
+        <v>202</v>
       </c>
       <c r="I193" s="5">
         <v>1</v>
@@ -8264,25 +7655,25 @@
         <v>65</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>394</v>
+        <v>12</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E194" s="2">
         <v>1895</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>395</v>
+        <v>203</v>
       </c>
       <c r="I194" s="4">
         <v>1.18E-2</v>
@@ -8293,13 +7684,13 @@
         <v>65</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>396</v>
+        <v>12</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E195" s="2">
         <v>2058</v>
@@ -8311,7 +7702,7 @@
         <v>15</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>397</v>
+        <v>204</v>
       </c>
       <c r="I195" s="4">
         <v>0.99560000000000004</v>
@@ -8325,13 +7716,13 @@
         <v>65</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>398</v>
+        <v>12</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E196" s="2">
         <v>612</v>
@@ -8343,7 +7734,7 @@
         <v>15</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>399</v>
+        <v>205</v>
       </c>
       <c r="I196" s="4">
         <v>1.11E-2</v>
@@ -8357,13 +7748,13 @@
         <v>65</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>400</v>
+        <v>12</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E197" s="2">
         <v>1214</v>
@@ -8375,7 +7766,7 @@
         <v>15</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>401</v>
+        <v>206</v>
       </c>
       <c r="I197" s="4">
         <v>1.04E-2</v>
@@ -8386,13 +7777,13 @@
         <v>65</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>402</v>
+        <v>12</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E198" s="2">
         <v>1543</v>
@@ -8404,7 +7795,7 @@
         <v>15</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>403</v>
+        <v>207</v>
       </c>
       <c r="I198" s="4">
         <v>2.3699999999999999E-2</v>
@@ -8415,13 +7806,13 @@
         <v>65</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>404</v>
+        <v>12</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E199" s="2">
         <v>53</v>
@@ -8433,19 +7824,19 @@
         <v>15</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>405</v>
+        <v>208</v>
       </c>
       <c r="I199" s="4">
         <v>0.99329999999999996</v>
       </c>
       <c r="K199" s="2" t="s">
-        <v>418</v>
+        <v>216</v>
       </c>
       <c r="L199" s="2" t="s">
-        <v>431</v>
+        <v>229</v>
       </c>
       <c r="M199" s="2" t="s">
-        <v>432</v>
+        <v>230</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.2">
@@ -8453,25 +7844,25 @@
         <v>65</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>406</v>
+        <v>12</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E200" s="2">
         <v>119</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>407</v>
+        <v>209</v>
       </c>
       <c r="I200" s="4">
         <v>2.0799999999999999E-2</v>
@@ -8482,13 +7873,13 @@
         <v>65</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>408</v>
+        <v>12</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E201" s="2">
         <v>704</v>
@@ -8500,7 +7891,7 @@
         <v>15</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>409</v>
+        <v>210</v>
       </c>
       <c r="I201" s="4">
         <v>1.43E-2</v>
@@ -8511,25 +7902,25 @@
         <v>65</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>410</v>
+        <v>12</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E202" s="2">
         <v>1194</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>411</v>
+        <v>211</v>
       </c>
       <c r="I202" s="4">
         <v>2.0400000000000001E-2</v>
@@ -8543,25 +7934,25 @@
         <v>65</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>412</v>
+        <v>12</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>354</v>
+        <v>183</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="E203" s="2">
         <v>1249</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>413</v>
+        <v>212</v>
       </c>
       <c r="I203" s="4">
         <v>1.2500000000000001E-2</v>
@@ -8571,34 +7962,34 @@
       <c r="A204" s="7">
         <v>65</v>
       </c>
-      <c r="B204" s="8" t="s">
-        <v>414</v>
+      <c r="B204" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="D204" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E204" s="9">
+        <v>183</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E204" s="8">
         <v>922</v>
       </c>
-      <c r="F204" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G204" s="9" t="s">
+      <c r="F204" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G204" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H204" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="I204" s="10">
+        <v>213</v>
+      </c>
+      <c r="I204" s="9">
         <v>5.3499999999999999E-2</v>
       </c>
-      <c r="J204" s="9"/>
-      <c r="K204" s="9"/>
-      <c r="L204" s="9"/>
-      <c r="M204" s="9"/>
+      <c r="J204" s="8"/>
+      <c r="K204" s="8"/>
+      <c r="L204" s="8"/>
+      <c r="M204" s="8"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M204" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
